--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>236206.80975601</v>
+        <v>231492.8988016456</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11228375.50159254</v>
+        <v>11226015.58403087</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>184.7717810893716</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -674,10 +674,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>235.2295993212797</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226222</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -792,7 +792,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>46.46264217274654</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>106.1730386082885</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>230.0019615367847</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66.71447452590989</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>169.0527023482098</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -944,22 +944,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968129</v>
+        <v>50.6435372072226</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>137.546448387128</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>153.8871923638769</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>298.2659414162562</v>
+        <v>235.4551847859273</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1148,10 +1148,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>130.2648764202384</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>226.3816667732198</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1373,16 +1373,16 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>16.37035733665372</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>12.54612284480684</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1528,16 +1528,16 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>81.27139101517622</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>95.49320096681697</v>
@@ -1576,7 +1576,7 @@
         <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>10.16449479145355</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
@@ -1585,7 +1585,7 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1610,22 +1610,22 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>178.0813123578812</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>97.12173983251127</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>97.42475435993873</v>
@@ -1771,19 +1771,19 @@
         <v>82.99846957177846</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>61.74604639269836</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>52.0727559207782</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658109</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C19" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092593</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357231</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="20">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077823</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110056</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.9624712641434</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404353</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
-        <v>127.2743219418611</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
-        <v>159.203927795431</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292004</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007185</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035426</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219398</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507309</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484036</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.5802388872325</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380454</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497647</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943239</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662017</v>
+        <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
-        <v>126.8896660972067</v>
+        <v>126.8896660972066</v>
       </c>
     </row>
     <row r="29">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093885</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227888</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126118</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841667</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564641</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838904</v>
+        <v>24.17382596574967</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828916</v>
+        <v>52.06849973564979</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434673</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.4152824970372</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308066</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086853</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435636</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431749</v>
+        <v>70.57601873167812</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459989</v>
+        <v>55.72314698196053</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643962</v>
+        <v>41.29686219380025</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931873</v>
+        <v>41.22330424667936</v>
       </c>
       <c r="F34" t="n">
-        <v>49.416218139086</v>
+        <v>42.97275566644663</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147813</v>
+        <v>53.79159358883877</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805018</v>
+        <v>41.14384575541081</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922211</v>
+        <v>18.98356133658274</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367802</v>
+        <v>9.882059701038656</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920534</v>
+        <v>88.00800320656597</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407381</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678079</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546739</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.717178275424</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221366</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988129</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F44" t="n">
         <v>282.3655247697376</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W44" t="n">
         <v>236.929075365811</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1384.27406652682</v>
+        <v>1403.073059142962</v>
       </c>
       <c r="C2" t="n">
-        <v>1384.27406652682</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="D2" t="n">
-        <v>1384.27406652682</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.635903810283</v>
+        <v>1009.897557645893</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402612</v>
+        <v>593.0031191758704</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282644</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.495659394755</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>114.5970879866871</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>607.9173797052159</v>
       </c>
       <c r="M2" t="n">
-        <v>1201.710316572951</v>
+        <v>1121.520058314904</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572951</v>
+        <v>1635.122736924591</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.74991746528</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596802</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.78296973775</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678801</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238217</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="U2" t="n">
-        <v>1784.768812238217</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="V2" t="n">
-        <v>1784.768812238217</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="W2" t="n">
-        <v>1784.768812238217</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="X2" t="n">
-        <v>1784.768812238217</v>
+        <v>1799.563768222361</v>
       </c>
       <c r="Y2" t="n">
-        <v>1784.768812238217</v>
+        <v>1403.073059142962</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>556.1927859813147</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>405.5385555414069</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>275.4495881628873</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>139.003097273775</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284341</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I3" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K3" t="n">
-        <v>176.1237484101853</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="L3" t="n">
-        <v>176.1237484101853</v>
+        <v>525.0693326546516</v>
       </c>
       <c r="M3" t="n">
-        <v>714.3825334202784</v>
+        <v>921.5731989359441</v>
       </c>
       <c r="N3" t="n">
-        <v>1252.641318430371</v>
+        <v>921.5731989359441</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021353</v>
+        <v>1435.175877545632</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.78296973775</v>
+        <v>1840.797246262029</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.78296973775</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.78296973775</v>
+        <v>2051.245294714984</v>
       </c>
       <c r="S3" t="n">
-        <v>2039.852292637619</v>
+        <v>1916.314617614853</v>
       </c>
       <c r="T3" t="n">
-        <v>1862.868480836527</v>
+        <v>1739.330805813761</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492403</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.72766086347</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996757</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467688</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222761</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>837.6971883925817</v>
+        <v>242.0866348642472</v>
       </c>
       <c r="C4" t="n">
-        <v>667.4920704585709</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="D4" t="n">
-        <v>511.8589573610856</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="E4" t="n">
-        <v>356.3001452202881</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="F4" t="n">
-        <v>198.974210433261</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="G4" t="n">
-        <v>198.974210433261</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="H4" t="n">
-        <v>43.495659394755</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="I4" t="n">
-        <v>43.495659394755</v>
+        <v>71.88151693023644</v>
       </c>
       <c r="J4" t="n">
-        <v>43.495659394755</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="V4" t="n">
-        <v>944.9426819363074</v>
+        <v>710.6250556243708</v>
       </c>
       <c r="W4" t="n">
-        <v>944.9426819363074</v>
+        <v>427.2946535555485</v>
       </c>
       <c r="X4" t="n">
-        <v>944.9426819363074</v>
+        <v>427.2946535555485</v>
       </c>
       <c r="Y4" t="n">
-        <v>944.9426819363074</v>
+        <v>427.2946535555485</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1276.13637826023</v>
+        <v>1023.721470883518</v>
       </c>
       <c r="C5" t="n">
-        <v>1276.13637826023</v>
+        <v>1023.721470883518</v>
       </c>
       <c r="D5" t="n">
-        <v>1276.13637826023</v>
+        <v>638.2803421001856</v>
       </c>
       <c r="E5" t="n">
-        <v>873.5528533767741</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067519</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K5" t="n">
-        <v>354.9767999852782</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>848.297091703807</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M5" t="n">
-        <v>1386.5558767139</v>
+        <v>893.805894502329</v>
       </c>
       <c r="N5" t="n">
-        <v>1386.5558767139</v>
+        <v>1102.089684652121</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606229</v>
+        <v>1542.129285544449</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737751</v>
+        <v>1890.316777675971</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964323</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964323</v>
+        <v>1813.668821661858</v>
       </c>
       <c r="U5" t="n">
-        <v>1714.523771398922</v>
+        <v>1813.668821661858</v>
       </c>
       <c r="V5" t="n">
-        <v>1714.523771398922</v>
+        <v>1813.668821661858</v>
       </c>
       <c r="W5" t="n">
-        <v>1343.524736367209</v>
+        <v>1813.668821661858</v>
       </c>
       <c r="X5" t="n">
-        <v>1343.524736367209</v>
+        <v>1424.216216594915</v>
       </c>
       <c r="Y5" t="n">
-        <v>1343.524736367209</v>
+        <v>1424.216216594915</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284343</v>
+        <v>90.8905007444268</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475502</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475502</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>527.0617452930683</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.276226875481</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875481</v>
+        <v>1155.938290490835</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466463</v>
+        <v>1669.540969100522</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.16233781692</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.6226020616494</v>
+        <v>196.9448552046989</v>
       </c>
       <c r="C7" t="n">
-        <v>536.6226020616494</v>
+        <v>196.9448552046989</v>
       </c>
       <c r="D7" t="n">
-        <v>536.6226020616494</v>
+        <v>196.9448552046989</v>
       </c>
       <c r="E7" t="n">
-        <v>381.0637899208519</v>
+        <v>196.9448552046989</v>
       </c>
       <c r="F7" t="n">
-        <v>242.1279834692075</v>
+        <v>196.9448552046989</v>
       </c>
       <c r="G7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633839</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304677</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130171</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>382.1528738960002</v>
       </c>
       <c r="Y7" t="n">
-        <v>721.8306207529507</v>
+        <v>382.1528738960002</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1178.648892786852</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="C8" t="n">
-        <v>877.3701640835627</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="D8" t="n">
-        <v>877.3701640835627</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,22 +4805,22 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>191.9627430103717</v>
+        <v>353.2546601492718</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>846.5749518678007</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1975.634347577648</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1579.143638498249</v>
+        <v>2365.64850507718</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>1701.875066013061</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>2218.395348604042</v>
       </c>
       <c r="P9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>817.17930939033</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>661.5461962928448</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>505.9873841520472</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>348.6614493650202</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4999,13 +4999,13 @@
         <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>720.0916423671165</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>486.0113201500996</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>262.8992589667429</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1405.326329274747</v>
+        <v>1704.529089160267</v>
       </c>
       <c r="C11" t="n">
-        <v>1083.947102923872</v>
+        <v>1383.149862809392</v>
       </c>
       <c r="D11" t="n">
-        <v>1067.411388442403</v>
+        <v>1069.505009172253</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442403</v>
+        <v>738.7177594349916</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185751</v>
+        <v>393.6195961111632</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527721</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L11" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M11" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N11" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O11" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3011.239105293022</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2675.578323579425</v>
       </c>
       <c r="V11" t="n">
-        <v>2675.578323579424</v>
+        <v>2675.578323579425</v>
       </c>
       <c r="W11" t="n">
-        <v>2376.375563693905</v>
+        <v>2675.578323579425</v>
       </c>
       <c r="X11" t="n">
-        <v>2058.719233773155</v>
+        <v>2357.921993658676</v>
       </c>
       <c r="Y11" t="n">
-        <v>1734.02479983995</v>
+        <v>2033.22755972547</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H12" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>385.6496467242599</v>
+        <v>569.5655503012283</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6496467242599</v>
+        <v>471.1567075134114</v>
       </c>
       <c r="D13" t="n">
-        <v>385.6496467242599</v>
+        <v>387.3198695621202</v>
       </c>
       <c r="E13" t="n">
-        <v>385.6496467242599</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="F13" t="n">
         <v>303.5573325675165</v>
@@ -5194,7 +5194,7 @@
         <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J13" t="n">
         <v>102.7129143774627</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1434.360761137264</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1270.437984451693</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>1056.795467839787</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628193</v>
+        <v>1056.795467839787</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401908</v>
+        <v>845.2613409171587</v>
       </c>
       <c r="X13" t="n">
-        <v>499.0613902693673</v>
+        <v>682.9772938463357</v>
       </c>
       <c r="Y13" t="n">
-        <v>499.0613902693673</v>
+        <v>682.9772938463357</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1470.676576838057</v>
+        <v>1467.291089243225</v>
       </c>
       <c r="C14" t="n">
-        <v>1149.297350487181</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="D14" t="n">
-        <v>835.652496850043</v>
+        <v>1145.91186289235</v>
       </c>
       <c r="E14" t="n">
-        <v>655.772383357234</v>
+        <v>815.1246131550879</v>
       </c>
       <c r="F14" t="n">
-        <v>655.772383357234</v>
+        <v>470.0264498312599</v>
       </c>
       <c r="G14" t="n">
-        <v>314.405902991431</v>
+        <v>128.659969465457</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>3007.853617698189</v>
       </c>
       <c r="V14" t="n">
-        <v>2740.928571142733</v>
+        <v>2737.543083547901</v>
       </c>
       <c r="W14" t="n">
-        <v>2441.725811257214</v>
+        <v>2438.340323662383</v>
       </c>
       <c r="X14" t="n">
-        <v>2124.069481336464</v>
+        <v>2120.683993741633</v>
       </c>
       <c r="Y14" t="n">
-        <v>1799.375047403259</v>
+        <v>1795.989559808428</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="M15" t="n">
-        <v>978.5393418843826</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>646.3958030796546</v>
+        <v>306.7345522742326</v>
       </c>
       <c r="C16" t="n">
-        <v>547.9869602918378</v>
+        <v>208.3257094864156</v>
       </c>
       <c r="D16" t="n">
-        <v>464.1501223405464</v>
+        <v>124.488871535124</v>
       </c>
       <c r="E16" t="n">
-        <v>380.3875853459429</v>
+        <v>124.488871535124</v>
       </c>
       <c r="F16" t="n">
-        <v>294.8579257051097</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>198.4001469507491</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>114.7178710584369</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
         <v>254.9154847581892</v>
@@ -5446,7 +5446,7 @@
         <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138161</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
         <v>1365.712833143251</v>
       </c>
       <c r="T16" t="n">
-        <v>1365.712833143251</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U16" t="n">
-        <v>1365.712833143251</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V16" t="n">
-        <v>1171.529763110269</v>
+        <v>793.9644698127915</v>
       </c>
       <c r="W16" t="n">
-        <v>959.9956361876403</v>
+        <v>582.430342890163</v>
       </c>
       <c r="X16" t="n">
-        <v>797.7115891168173</v>
+        <v>420.14629581934</v>
       </c>
       <c r="Y16" t="n">
-        <v>646.3958030796546</v>
+        <v>420.14629581934</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498593</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924234</v>
+        <v>68.77950792924233</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5534,10 +5534,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
         <v>3071.119566829236</v>
@@ -5546,19 +5546,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>596.176270190801</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885588</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072654</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462908</v>
+        <v>63.53681638462926</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229811</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>278.5901810446686</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184684</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567324</v>
+        <v>499.9530296343064</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879416</v>
+        <v>812.1990332879441</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296496</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U19" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W19" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5786,10 +5786,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5832,22 +5832,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>346.0196676966397</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L21" t="n">
-        <v>346.0196676966397</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M21" t="n">
-        <v>973.7913173233209</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1629.56928853388</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5908,25 +5908,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>435.0968109750519</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133159</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>804.578023344525</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>967.282790386233</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
         <v>1090.581152532862</v>
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1829.234834439669</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,52 +6121,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229885</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446693</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,55 +6218,55 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678972</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134134</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658946</v>
+        <v>1832.390418388517</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.201702025982</v>
+        <v>2453.253063755553</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647884</v>
+        <v>2986.344026377455</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,28 +6297,28 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>186.4798411672776</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>670.0459270655908</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1297.817576692272</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.815019777314</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985354</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517129</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
         <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6400,34 +6400,34 @@
         <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648018</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286453</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988167</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026484</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388008</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>700.0178648958359</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343938</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388519</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6540,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>556.9309448458635</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1184.702594472545</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1840.480565683104</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1840.480565683104</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
         <v>2157.335302368295</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222132</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463675</v>
+        <v>904.356053399307</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057096</v>
+        <v>601.3807258108102</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803388</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835482</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J32" t="n">
-        <v>299.607503995601</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230628</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1151.910151741592</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1697.911051786172</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2225.722335423634</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2665.761936315963</v>
+        <v>2578.359340831535</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174555</v>
+        <v>3006.843833557898</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042574</v>
+        <v>3303.341514273829</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117252</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939828</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.58084438077</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696894</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281938</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131751</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946333</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748459</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076167</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076167</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>553.113634139075</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>1180.885283765756</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="N33" t="n">
-        <v>1836.663254976315</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1836.663254976315</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.52557902309</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965139</v>
+        <v>365.6713676929704</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918675</v>
+        <v>309.385360640485</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245252</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123136</v>
+        <v>226.0316571652531</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597514</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407224</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.73045008374176</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234505</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076167</v>
+        <v>149.4335135798906</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067549</v>
+        <v>342.9206752648155</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805547</v>
+        <v>507.0483151386153</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188187</v>
+        <v>693.3398934768793</v>
       </c>
       <c r="N34" t="n">
-        <v>884.291208377098</v>
+        <v>876.5295275080884</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145876</v>
+        <v>1150.886415124779</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649525</v>
+        <v>1270.762580901358</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.984435873653</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387756</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451831</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.30564350159</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250165</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273661</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.3144371400691</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045776</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027463</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6971,10 +6971,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L36" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N36" t="n">
-        <v>2262.088962721623</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>2380.454662679751</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>806.619390679759</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7154,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924221</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7196,10 +7196,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7211,7 +7211,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7260,16 +7260,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>1740.468202408463</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7324,7 +7324,7 @@
         <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462915</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7342,16 +7342,16 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.619390679759</v>
       </c>
       <c r="O40" t="n">
-        <v>969.324157721467</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P40" t="n">
         <v>1089.200323498046</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7394,13 +7394,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
         <v>68.7795079292422</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,10 +7445,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7497,10 +7497,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7567,25 +7567,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>67.6987703122989</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222408</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.20216247628</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7670,25 +7670,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7710,10 +7710,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G45" t="n">
         <v>199.803798091603</v>
@@ -7722,25 +7722,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M45" t="n">
-        <v>1606.310991511064</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.565146063491</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072657</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102856</v>
+        <v>442.7178209184686</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485496</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P46" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q46" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>216.8905660381754</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>312.616199601139</v>
+        <v>668.5156360519572</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920141</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>109.3071442178817</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837494</v>
+        <v>492.8960778890013</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886042</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431189</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,16 +8216,16 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>457.6858179171396</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321648</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>359.5061581557557</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>588.5633660719515</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>285.3870922018731</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431189</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,16 +8453,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>305.9795316023688</v>
       </c>
       <c r="L8" t="n">
-        <v>468.0425993879824</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,10 +8529,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
@@ -8544,10 +8544,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>235.8239269133934</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7907196684351</v>
+        <v>263.790719668436</v>
       </c>
       <c r="K11" t="n">
         <v>505.666843611017</v>
@@ -8769,16 +8769,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>514.986373519011</v>
       </c>
       <c r="M15" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294519</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>192.2856137303845</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9480,25 +9480,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>376.3651575480042</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,25 +9714,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>407.1386544003163</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9954,22 +9954,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N27" t="n">
-        <v>431.8341765764316</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,25 +10188,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>407.1386544003163</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,25 +10425,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>407.1386544003163</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10662,10 +10662,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
@@ -10674,13 +10674,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>212.2488719779076</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10908,19 +10908,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>220.8844470939643</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11145,13 +11145,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>220.8844470939643</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11376,22 +11376,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>262.1075997502998</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>220.8844470939643</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>294.1380477641133</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>325.406692717338</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3.402972029248616</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>119.5451157930906</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>149.3980648820078</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>84.99515004250416</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>22.92831665172648</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>8.612412793782745</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>981206.1323451676</v>
+        <v>980003.037117647</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>981206.1323451676</v>
+        <v>980003.037117647</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>880284.0937755096</v>
+        <v>880284.09377551</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>880284.09377551</v>
+        <v>880284.0937755096</v>
       </c>
     </row>
     <row r="7">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>324597.9205680422</v>
+        <v>324597.9205680423</v>
       </c>
       <c r="C2" t="n">
-        <v>324597.9205680422</v>
+        <v>324597.920568042</v>
       </c>
       <c r="D2" t="n">
-        <v>324597.920568042</v>
+        <v>324597.9205680421</v>
       </c>
       <c r="E2" t="n">
-        <v>286846.2421639211</v>
+        <v>286846.2421639213</v>
       </c>
       <c r="F2" t="n">
         <v>286846.2421639212</v>
       </c>
       <c r="G2" t="n">
+        <v>324597.920568043</v>
+      </c>
+      <c r="H2" t="n">
         <v>324597.9205680429</v>
       </c>
-      <c r="H2" t="n">
-        <v>324597.9205680428</v>
-      </c>
       <c r="I2" t="n">
-        <v>324597.9205680428</v>
+        <v>324597.9205680429</v>
       </c>
       <c r="J2" t="n">
         <v>324597.9205680426</v>
       </c>
       <c r="K2" t="n">
-        <v>324597.9205680426</v>
+        <v>324597.9205680427</v>
       </c>
       <c r="L2" t="n">
-        <v>324597.9205680419</v>
+        <v>324597.9205680416</v>
       </c>
       <c r="M2" t="n">
-        <v>324597.920568043</v>
+        <v>324597.9205680428</v>
       </c>
       <c r="N2" t="n">
         <v>324597.9205680428</v>
@@ -26353,7 +26353,7 @@
         <v>324597.9205680428</v>
       </c>
       <c r="P2" t="n">
-        <v>324597.9205680429</v>
+        <v>324597.9205680428</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340549</v>
       </c>
       <c r="C3" t="n">
-        <v>3.549095996820228e-11</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062176</v>
+        <v>22558.42953401369</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740445</v>
+        <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668202</v>
+        <v>47425.32553668188</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728548</v>
+        <v>62456.24177539683</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962292</v>
+        <v>43252.52447081138</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277123</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840229</v>
+        <v>216193.9885327257</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840229</v>
+        <v>216193.9885327257</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26430,7 +26430,7 @@
         <v>125701.6674923646</v>
       </c>
       <c r="G4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
       <c r="H4" t="n">
         <v>173460.5839839468</v>
@@ -26439,13 +26439,13 @@
         <v>173460.5839839468</v>
       </c>
       <c r="J4" t="n">
-        <v>174211.07644833</v>
+        <v>174211.0764483299</v>
       </c>
       <c r="K4" t="n">
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26457,7 +26457,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="P4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481718</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.01969984053</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26491,25 +26491,25 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.1981331542</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134976.2383478505</v>
+        <v>-130624.7925335555</v>
       </c>
       <c r="C6" t="n">
-        <v>47228.70994400546</v>
+        <v>43233.86450049918</v>
       </c>
       <c r="D6" t="n">
-        <v>40060.38892233392</v>
+        <v>32324.09969894218</v>
       </c>
       <c r="E6" t="n">
-        <v>-4164.006502328499</v>
+        <v>-4373.738049017988</v>
       </c>
       <c r="F6" t="n">
-        <v>107958.5549717161</v>
+        <v>107748.8234250266</v>
       </c>
       <c r="G6" t="n">
-        <v>45542.24173189437</v>
+        <v>45542.24173189478</v>
       </c>
       <c r="H6" t="n">
+        <v>92967.56726857633</v>
+      </c>
+      <c r="I6" t="n">
+        <v>92967.56726857647</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-113558.065174136</v>
+      </c>
+      <c r="K6" t="n">
+        <v>86727.79886579327</v>
+      </c>
+      <c r="L6" t="n">
+        <v>27496.37272069875</v>
+      </c>
+      <c r="M6" t="n">
+        <v>49715.04279776505</v>
+      </c>
+      <c r="N6" t="n">
         <v>92967.56726857641</v>
       </c>
-      <c r="I6" t="n">
-        <v>92967.56726857639</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-120074.3503287095</v>
-      </c>
-      <c r="K6" t="n">
-        <v>86727.79886579321</v>
-      </c>
-      <c r="L6" t="n">
-        <v>31545.20993117132</v>
-      </c>
-      <c r="M6" t="n">
-        <v>50766.73780895362</v>
-      </c>
-      <c r="N6" t="n">
-        <v>92967.56726857639</v>
-      </c>
       <c r="O6" t="n">
-        <v>65199.8732258052</v>
+        <v>65199.87322580518</v>
       </c>
       <c r="P6" t="n">
-        <v>92967.56726857647</v>
+        <v>92967.5672685764</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>71.07831239473194</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="F4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26811,25 +26811,25 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443784</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.4391950293131</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014437</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660685</v>
+        <v>78.07030221924605</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551355</v>
+        <v>17.58004954287438</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="C4" t="n">
-        <v>1.09855092108859e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485741</v>
+        <v>72.62154181506514</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321492</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773719</v>
+        <v>659.3622249971638</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407218</v>
+        <v>117.1268713042803</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085253</v>
+        <v>59.28165692085236</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344375</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="K4" t="n">
-        <v>1.09855092108859e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485741</v>
+        <v>72.62154181506514</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321492</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>213.7859085452493</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -27442,10 +27442,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>150.328479694994</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26.6626360434373</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>161.4998697153981</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.1828998960998</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>33.31759019059933</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>329.775323728373</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>229.5049872864111</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27746,7 +27746,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626774</v>
+        <v>124.570436475858</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>18.20622705202879</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>12.68432099767202</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27795,7 +27795,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27837,10 +27837,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>90.97780506584252</v>
+        <v>153.7885616961714</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>38.23819033443223</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>54.11543127491436</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,43 +28719,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668693</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.636002634530513</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28980,13 +28980,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>28.01250026485215</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>128.2979821082773</v>
       </c>
       <c r="R22" t="n">
         <v>130.3599693155844</v>
@@ -29217,31 +29217,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668768</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431641</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901385</v>
+        <v>30.27223765901135</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431641</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431755</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
@@ -29542,19 +29542,19 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901266</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J32" t="n">
-        <v>86.27291196566787</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000708</v>
+        <v>81.10808140892999</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="33">
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="K34" t="n">
-        <v>94.97643844045595</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>106.8683420224692</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727101</v>
       </c>
     </row>
     <row r="35">
@@ -30165,25 +30165,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>5.636002634528367</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30414,19 +30414,19 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>5.636002634528316</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,28 +30639,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.71049010668774</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5.636002634528481</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>37.6129845773319</v>
       </c>
       <c r="S44" t="n">
         <v>130.3599693155844</v>
@@ -30879,10 +30879,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L46" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634528211</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>73.83216285893806</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>162.8911480034117</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>19.71020888454838</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344375</v>
+        <v>400.5089558396894</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344375</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,16 +34936,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>314.6274147379022</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344376</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>210.3876668179716</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>496.1762440226396</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>200.0149793477064</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542299</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>162.9211284231314</v>
       </c>
       <c r="L8" t="n">
-        <v>314.7944296574907</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
@@ -35264,10 +35264,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>148.7405620940788</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K11" t="n">
         <v>362.6084404317796</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2252668734663</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.63600263452786</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873225</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>286.7682222146709</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>193.7979950868721</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184298</v>
       </c>
       <c r="R22" t="n">
         <v>7.697989841835607</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>320.0552895810017</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634528606</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
-        <v>456.599714906096</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101053</v>
+        <v>581.7882983101028</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192275</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809041</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698313</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N27" t="n">
-        <v>346.4620637222649</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215734</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122757</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.4480384844689</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851016</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36838,19 +36838,19 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004799</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>320.0552895810017</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.3837936917569</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066585</v>
+        <v>432.8126189155177</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>299.4926067837692</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227375</v>
+        <v>75.16693519537687</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>320.0552895810017</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055108</v>
       </c>
       <c r="K34" t="n">
-        <v>177.6380961272659</v>
+        <v>195.4415774595201</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
@@ -37236,16 +37236,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371496</v>
+        <v>277.128169309789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380289</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>110.3251060326216</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
@@ -37394,13 +37394,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>119.5613130890187</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37473,13 +37473,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724865</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37628,19 +37628,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>135.5123342397976</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,19 +37710,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644680799</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>135.5123342397976</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.636002634528664</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -37953,10 +37953,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724866</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>-1.378022275413528e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>135.5123342397976</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>171.4214974565482</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
